--- a/assets/Template Import Laporan Pembayaran.xlsx
+++ b/assets/Template Import Laporan Pembayaran.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>NIS</t>
+  </si>
+  <si>
     <t>Nama Siswa</t>
   </si>
   <si>
@@ -40,7 +43,19 @@
     <t>XII-TITL-1</t>
   </si>
   <si>
-    <t>Jan-Juni</t>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Mei</t>
+  </si>
+  <si>
+    <t>Jun</t>
   </si>
   <si>
     <t>JAMITAR F SINAGA</t>
@@ -49,35 +64,16 @@
     <t>XII-BKP -1</t>
   </si>
   <si>
-    <t>Jan - Juni</t>
-  </si>
-  <si>
-    <t>GABRIEL J MANURUNG</t>
-  </si>
-  <si>
-    <t>XIITAV - 2</t>
-  </si>
-  <si>
-    <t>Jan - Maret</t>
-  </si>
-  <si>
-    <t>NICO S NAPITUPULU</t>
-  </si>
-  <si>
-    <t>XII-TAV - 2</t>
-  </si>
-  <si>
-    <t>DIO AGUS PRATAMA</t>
-  </si>
-  <si>
-    <t>XII-TKR -2</t>
+    <t>Jan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
@@ -444,7 +440,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -487,6 +483,32 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -628,7 +650,7 @@
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,10 +689,10 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,28 +701,28 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -727,13 +749,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,11 +765,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -757,26 +782,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1098,139 +1126,333 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="2" width="29.0625" customWidth="1"/>
-    <col min="4" max="4" width="13.0625" customWidth="1"/>
-    <col min="5" max="5" width="9.25" style="1"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="6.625" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="13.0625" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="1"/>
+    <col min="8" max="8" width="6.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3">
+    <row r="2" spans="1:8">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
+      <c r="B2" s="4">
+        <v>112233</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5">
-        <v>44594</v>
-      </c>
-      <c r="E2" s="11">
-        <v>450000</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="E2" s="10">
+        <v>44879</v>
+      </c>
+      <c r="F2" s="11">
+        <v>75000</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="6">
+    <row r="3" spans="1:8">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4">
+        <v>112233</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10">
+        <v>44879</v>
+      </c>
+      <c r="F3" s="11">
+        <v>75000</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>112233</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10">
+        <v>44879</v>
+      </c>
+      <c r="F4" s="11">
+        <v>75000</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>112233</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10">
+        <v>44879</v>
+      </c>
+      <c r="F5" s="11">
+        <v>75000</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>112233</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="10">
+        <v>44879</v>
+      </c>
+      <c r="F6" s="11">
+        <v>75000</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>112233</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="10">
+        <v>44879</v>
+      </c>
+      <c r="F7" s="11">
+        <v>75000</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>123344</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="14">
+        <v>44599</v>
+      </c>
+      <c r="F8" s="11">
+        <v>75000</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>123344</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="14">
+        <v>44599</v>
+      </c>
+      <c r="F9" s="11">
+        <v>75000</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8">
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>123344</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="14">
         <v>44599</v>
       </c>
-      <c r="E3" s="12">
-        <v>450000</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="F10" s="11">
+        <v>75000</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>11</v>
       </c>
+      <c r="H10" s="13"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>123344</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="14">
+        <v>44599</v>
+      </c>
+      <c r="F11" s="11">
+        <v>75000</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>123344</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="14">
+        <v>44599</v>
+      </c>
+      <c r="F12" s="11">
+        <v>75000</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>123344</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="14">
+        <v>44599</v>
+      </c>
+      <c r="F13" s="11">
+        <v>75000</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8">
-        <v>44599</v>
-      </c>
-      <c r="E4" s="12">
-        <v>225000</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="8">
-        <v>44599</v>
-      </c>
-      <c r="E5" s="12">
-        <v>450000</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="6">
-        <v>6</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="8">
-        <v>44628</v>
-      </c>
-      <c r="E6" s="12">
-        <v>225000</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="H13" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
